--- a/data/trans_orig/IP16A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9881FB3F-F891-42A7-89DC-7845968851D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05539C3F-7200-45E8-BDFE-F4710C49667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34A9A949-A5EA-4F9E-8436-1E1126CB0D0B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72D9B1C8-03BE-41CF-928D-7DFEC69FCB37}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="264">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -188,637 +188,649 @@
     <t>62,45%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>61,7%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
   </si>
   <si>
     <t>37,55%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
   </si>
   <si>
     <t>38,88%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>64,11%</t>
   </si>
   <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
     <t>57,77%</t>
   </si>
   <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
   </si>
   <si>
     <t>59,03%</t>
   </si>
   <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
   </si>
   <si>
     <t>59,37%</t>
   </si>
   <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
   </si>
   <si>
     <t>59,19%</t>
   </si>
   <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>50,42%</t>
   </si>
   <si>
     <t>40,97%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
   </si>
   <si>
     <t>40,63%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>40,81%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
+    <t>49,58%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
   <si>
     <t>55,64%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
   </si>
   <si>
     <t>57,53%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>42,47%</t>
   </si>
   <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3505794-79D0-439C-9C0A-181930F012DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD19A6E-3666-4E1C-9D44-B11357C47BB4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2131,7 +2143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105A35C6-1EBD-46B2-9FCB-DFB27F80AAD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F046F79-0B6E-45AD-9C55-E68724D76AB9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3020,7 +3032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6893F1E-0B0C-4F22-9CF3-AF8528153B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA59784-AA6D-47A2-A2BD-F896FE5F820B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3909,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164DCDFB-323D-4ADF-A0A0-657B42BB9255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A50BDD7-9F67-454A-B821-894600691048}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4343,10 +4355,10 @@
         <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>188</v>
@@ -4355,13 +4367,13 @@
         <v>124584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4388,13 @@
         <v>45944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -4391,13 +4403,13 @@
         <v>45130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>130</v>
@@ -4406,13 +4418,13 @@
         <v>91074</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4492,13 @@
         <v>25828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -4495,13 +4507,13 @@
         <v>24552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4510,13 +4522,13 @@
         <v>50380</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4543,13 @@
         <v>17926</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -4546,13 +4558,13 @@
         <v>16803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -4561,13 +4573,13 @@
         <v>34729</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4647,13 @@
         <v>102161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>125</v>
@@ -4650,13 +4662,13 @@
         <v>85919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>280</v>
@@ -4665,13 +4677,13 @@
         <v>188079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4698,13 @@
         <v>70376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4701,13 +4713,13 @@
         <v>68493</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -4716,13 +4728,13 @@
         <v>138869</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05539C3F-7200-45E8-BDFE-F4710C49667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABC3435-4127-46B4-9774-FB3E2257100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72D9B1C8-03BE-41CF-928D-7DFEC69FCB37}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68F55362-0E8F-487C-AC93-5064FC69A115}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="260">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,13 +77,16 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>94,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -95,87 +98,72 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>5,61%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
     <t>2,99%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>98,44%</t>
+  </si>
+  <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
     <t>99,25%</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>0,75%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>94,7%</t>
+  </si>
+  <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
     <t>97,82%</t>
   </si>
   <si>
+    <t>5,3%</t>
+  </si>
+  <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
     <t>2,18%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
@@ -185,652 +173,652 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2012 (Tasa respuesta: 20,72%)</t>
   </si>
   <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>61,7%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
   </si>
   <si>
     <t>37,55%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
   </si>
   <si>
     <t>64,11%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>35,89%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>67,87%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
   </si>
   <si>
     <t>62,4%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
   </si>
   <si>
     <t>64,72%</t>
   </si>
   <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>64,73%</t>
   </si>
   <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>53,18%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>59,03%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>40,97%</t>
   </si>
   <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1230,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD19A6E-3666-4E1C-9D44-B11357C47BB4}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DC7FAC-A7AC-4806-9A71-EA8C9807328A}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1360,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1375,29 +1363,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20258</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1406,7 +1396,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1415,26 +1405,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1443,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,10 +1450,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1473,23 +1465,25 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1503,52 +1497,52 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D7" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N7" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1557,7 +1551,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1566,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1581,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1596,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1626,10 +1620,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1641,10 +1635,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1658,52 +1652,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1712,7 +1706,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1721,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1736,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1751,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1781,10 +1775,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1796,10 +1790,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1813,52 +1807,52 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D13" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I13" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N13" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1867,7 +1861,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1876,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1891,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1906,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,10 +1915,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1936,10 +1930,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1951,10 +1945,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1967,170 +1961,14 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>215</v>
-      </c>
-      <c r="D16" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>190</v>
-      </c>
-      <c r="I16" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>405</v>
-      </c>
-      <c r="N16" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2143,8 +1981,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F046F79-0B6E-45AD-9C55-E68724D76AB9}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150D0066-77BF-48EF-8BEA-0A19B7969F4E}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2160,7 +1998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2261,88 +2099,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14095</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11307</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25403</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8966</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6800</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N5" s="7">
+        <v>15765</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,147 +2201,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="7">
+        <v>23061</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18107</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="N6" s="7">
+        <v>41168</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7">
-        <v>11307</v>
+        <v>59559</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I7" s="7">
-        <v>14095</v>
+        <v>61205</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="N7" s="7">
-        <v>25403</v>
+        <v>120764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>6800</v>
+        <v>27774</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I8" s="7">
-        <v>8966</v>
+        <v>39829</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N8" s="7">
-        <v>15765</v>
+        <v>67603</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,10 +2356,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
-        <v>18107</v>
+        <v>87333</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2515,10 +2371,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I9" s="7">
-        <v>23061</v>
+        <v>101034</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2530,10 +2386,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="N9" s="7">
-        <v>41168</v>
+        <v>188367</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2547,106 +2403,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7">
+        <v>25033</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="7">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26435</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="7">
+        <v>70</v>
+      </c>
+      <c r="N10" s="7">
+        <v>51467</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" s="7">
-        <v>61205</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="7">
-        <v>85</v>
-      </c>
-      <c r="I10" s="7">
-        <v>59559</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="7">
-        <v>173</v>
-      </c>
-      <c r="N10" s="7">
-        <v>120764</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>39829</v>
+        <v>11371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>27774</v>
+        <v>12998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="N11" s="7">
-        <v>67603</v>
+        <v>24369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,10 +2511,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>101034</v>
+        <v>36404</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2670,10 +2526,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>87333</v>
+        <v>39433</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2685,10 +2541,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="N12" s="7">
-        <v>188367</v>
+        <v>75836</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2702,106 +2558,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="D13" s="7">
-        <v>26435</v>
+        <v>98686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="I13" s="7">
-        <v>25033</v>
+        <v>98947</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="N13" s="7">
-        <v>51467</v>
+        <v>197633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
-        <v>12998</v>
+        <v>48111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7">
-        <v>11371</v>
+        <v>59627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="N14" s="7">
-        <v>24369</v>
+        <v>107738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,10 +2666,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>39433</v>
+        <v>146797</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2825,10 +2681,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>36404</v>
+        <v>158574</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2840,10 +2696,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>105</v>
+        <v>435</v>
       </c>
       <c r="N15" s="7">
-        <v>75836</v>
+        <v>305371</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2856,170 +2712,14 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>138</v>
-      </c>
-      <c r="D16" s="7">
-        <v>98947</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="7">
-        <v>141</v>
-      </c>
-      <c r="I16" s="7">
-        <v>98686</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" s="7">
-        <v>279</v>
-      </c>
-      <c r="N16" s="7">
-        <v>197633</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>85</v>
-      </c>
-      <c r="D17" s="7">
-        <v>59627</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="7">
-        <v>71</v>
-      </c>
-      <c r="I17" s="7">
-        <v>48111</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="7">
-        <v>156</v>
-      </c>
-      <c r="N17" s="7">
-        <v>107738</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>223</v>
-      </c>
-      <c r="D18" s="7">
-        <v>158574</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>212</v>
-      </c>
-      <c r="I18" s="7">
-        <v>146797</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>435</v>
-      </c>
-      <c r="N18" s="7">
-        <v>305371</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3032,8 +2732,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA59784-AA6D-47A2-A2BD-F896FE5F820B}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAA3AAD-4BD0-4239-B7EC-8808ACF3846B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3049,7 +2749,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3150,88 +2850,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9406</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6439</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N4" s="7">
+        <v>15845</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6285</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2347</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8632</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,147 +2952,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15691</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8786</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="7">
+        <v>24477</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>6439</v>
+        <v>50483</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>9406</v>
+        <v>47551</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="N7" s="7">
-        <v>15845</v>
+        <v>98034</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>2347</v>
+        <v>32496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>6285</v>
+        <v>38069</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="N8" s="7">
-        <v>8632</v>
+        <v>70565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,10 +3107,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
-        <v>8786</v>
+        <v>82979</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3404,10 +3122,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I9" s="7">
-        <v>15691</v>
+        <v>85620</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3419,10 +3137,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="N9" s="7">
-        <v>24477</v>
+        <v>168599</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3436,106 +3154,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>47551</v>
+        <v>18324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>50483</v>
+        <v>13990</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>98034</v>
+        <v>32313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
         <v>15</v>
       </c>
-      <c r="C11" s="7">
-        <v>55</v>
-      </c>
       <c r="D11" s="7">
-        <v>38069</v>
+        <v>10468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>32496</v>
+        <v>14880</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="N11" s="7">
-        <v>70565</v>
+        <v>25348</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,10 +3262,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>85620</v>
+        <v>28792</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3559,10 +3277,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>82979</v>
+        <v>28870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3574,10 +3292,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>168599</v>
+        <v>57661</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3591,106 +3309,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="D13" s="7">
-        <v>13990</v>
+        <v>78212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>18324</v>
+        <v>67979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="N13" s="7">
-        <v>32313</v>
+        <v>146191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>14880</v>
+        <v>49249</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="I14" s="7">
-        <v>10468</v>
+        <v>55297</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="N14" s="7">
-        <v>25348</v>
+        <v>104546</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7">
-        <v>28870</v>
+        <v>127461</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3714,10 +3432,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I15" s="7">
-        <v>28792</v>
+        <v>123276</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3729,10 +3447,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="N15" s="7">
-        <v>57661</v>
+        <v>250737</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3745,170 +3463,14 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>100</v>
-      </c>
-      <c r="D16" s="7">
-        <v>67979</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="7">
-        <v>119</v>
-      </c>
-      <c r="I16" s="7">
-        <v>78212</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" s="7">
-        <v>219</v>
-      </c>
-      <c r="N16" s="7">
-        <v>146191</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>79</v>
-      </c>
-      <c r="D17" s="7">
-        <v>55297</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="7">
-        <v>73</v>
-      </c>
-      <c r="I17" s="7">
-        <v>49249</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" s="7">
-        <v>152</v>
-      </c>
-      <c r="N17" s="7">
-        <v>104546</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>179</v>
-      </c>
-      <c r="D18" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>371</v>
-      </c>
-      <c r="N18" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3921,8 +3483,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A50BDD7-9F67-454A-B821-894600691048}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF94AE47-506F-40C3-98B3-E056F198711B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3938,7 +3500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4039,88 +3601,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5266</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8676</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>13942</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9964</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6991</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="N5" s="7">
+        <v>16955</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,147 +3703,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15667</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30897</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>7860</v>
+        <v>74156</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="I7" s="7">
-        <v>5257</v>
+        <v>71508</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="N7" s="7">
-        <v>13116</v>
+        <v>145664</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>6506</v>
+        <v>46687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I8" s="7">
-        <v>6559</v>
+        <v>48516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="N8" s="7">
-        <v>13066</v>
+        <v>95203</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,10 +3858,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D9" s="7">
-        <v>14366</v>
+        <v>120843</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -4293,10 +3873,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7">
-        <v>11816</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -4308,10 +3888,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>26182</v>
+        <v>240867</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -4325,106 +3905,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>68473</v>
+        <v>24596</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>56111</v>
+        <v>27379</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>124584</v>
+        <v>51974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>45944</v>
+        <v>17046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>45130</v>
+        <v>19132</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="N11" s="7">
-        <v>91074</v>
+        <v>36179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,10 +4013,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>114417</v>
+        <v>41642</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -4448,10 +4028,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>101241</v>
+        <v>46511</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -4463,10 +4043,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="N12" s="7">
-        <v>215658</v>
+        <v>88153</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -4480,106 +4060,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D13" s="7">
-        <v>25828</v>
+        <v>104018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I13" s="7">
-        <v>24552</v>
+        <v>107562</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="N13" s="7">
-        <v>50380</v>
+        <v>211579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7">
-        <v>17926</v>
+        <v>73697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I14" s="7">
-        <v>16803</v>
+        <v>74639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="N14" s="7">
-        <v>34729</v>
+        <v>148337</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,10 +4168,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>43754</v>
+        <v>177715</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4603,10 +4183,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I15" s="7">
-        <v>41355</v>
+        <v>182201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4618,10 +4198,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>85109</v>
+        <v>359916</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4634,170 +4214,14 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>155</v>
-      </c>
-      <c r="D16" s="7">
-        <v>102161</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H16" s="7">
-        <v>125</v>
-      </c>
-      <c r="I16" s="7">
-        <v>85919</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M16" s="7">
-        <v>280</v>
-      </c>
-      <c r="N16" s="7">
-        <v>188079</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>95</v>
-      </c>
-      <c r="D17" s="7">
-        <v>70376</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H17" s="7">
-        <v>101</v>
-      </c>
-      <c r="I17" s="7">
-        <v>68493</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M17" s="7">
-        <v>196</v>
-      </c>
-      <c r="N17" s="7">
-        <v>138869</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>250</v>
-      </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
-      <c r="I18" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>476</v>
-      </c>
-      <c r="N18" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
